--- a/Documentation/MI-nek feltett kérdések.xlsx
+++ b/Documentation/MI-nek feltett kérdések.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Webfejlesztés\portfolio\work3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFEAFB0-FFF6-4ECA-8246-3437C3FCDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5FE91-A2D9-497C-AA8E-EBD3814E3361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
